--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,88 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-5.546004450979949</v>
       </c>
+      <c r="B2" t="n">
+        <v>-5.34045850919005</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-1.149301176356966</v>
       </c>
+      <c r="B3" t="n">
+        <v>-1.131202972523497</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>-0.3394332167418996</v>
       </c>
+      <c r="B4" t="n">
+        <v>-0.1981644286802984</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-1.178004393929078</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.7595660621586662</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1314775148644428</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.07734033066112114</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>0.1983727107882802</v>
       </c>
+      <c r="B7" t="n">
+        <v>0.1439439259330764</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>0.3506641371955279</v>
       </c>
+      <c r="B8" t="n">
+        <v>0.2380344147737066</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>0.09753381730995681</v>
       </c>
+      <c r="B9" t="n">
+        <v>0.03166756318959256</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.04731397797236764</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.03053534835443629</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>0.009430013393246088</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.003002641750018904</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-5.34045850919005</v>
       </c>
+      <c r="C2" t="n">
+        <v>-5.041423880421429</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>-1.131202972523497</v>
       </c>
+      <c r="C3" t="n">
+        <v>-1.155700669620174</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>-0.1981644286802984</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.07506705564893197</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.7595660621586662</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.4238602485323116</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.07734033066112114</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.01520034001876744</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>0.1439439259330764</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.1043279679824023</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>0.2380344147737066</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.1352696695087812</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>0.03166756318959256</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.02787891322180851</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.03053534835443629</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.02331057633078736</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -519,6 +549,9 @@
       </c>
       <c r="B11" t="n">
         <v>0.003002641750018904</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.006819328375059187</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -452,7 +452,7 @@
         <v>-5.34045850919005</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.041423880421429</v>
+        <v>-5.023377998469892</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         <v>-1.131202972523497</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.155700669620174</v>
+        <v>-1.151483576865103</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>-0.1981644286802984</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07506705564893197</v>
+        <v>-0.06510371792358649</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>-0.7595660621586662</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4238602485323116</v>
+        <v>-0.4130396773035255</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         <v>0.07734033066112114</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01520034001876744</v>
+        <v>0.01420778898168975</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +507,7 @@
         <v>0.1439439259330764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1043279679824023</v>
+        <v>0.1031345171695419</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>0.2380344147737066</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1352696695087812</v>
+        <v>0.1337589614876022</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +529,7 @@
         <v>0.03166756318959256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02787891322180851</v>
+        <v>0.02733475124857185</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +540,7 @@
         <v>0.03053534835443629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02331057633078736</v>
+        <v>0.0234479315146108</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +551,7 @@
         <v>0.003002641750018904</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006819328375059187</v>
+        <v>0.006722294386397641</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,12 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,7 +458,13 @@
         <v>-5.34045850919005</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.023377998469892</v>
+        <v>-5.041423880421429</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.710269109749491</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4.344855546796872</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +475,13 @@
         <v>-1.131202972523497</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.151483576865103</v>
+        <v>-1.155700669620174</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.158930277919864</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.140201035762955</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +492,13 @@
         <v>-0.1981644286802984</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06510371792358649</v>
+        <v>-0.07506705564893197</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01963012362906111</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.09302013488457662</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +509,13 @@
         <v>-0.7595660621586662</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4130396773035255</v>
+        <v>-0.4238602485323116</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1608612870209168</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04823066005975032</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +526,13 @@
         <v>0.07734033066112114</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01420778898168975</v>
+        <v>0.01520034001876744</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.04412375307091955</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.09856047570660458</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +543,13 @@
         <v>0.1439439259330764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1031345171695419</v>
+        <v>0.1043279679824023</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06603273543210547</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02905822296111348</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +560,13 @@
         <v>0.2380344147737066</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1337589614876022</v>
+        <v>0.1352696695087812</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03973136016071439</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.05081791680323088</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +577,13 @@
         <v>0.03166756318959256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02733475124857185</v>
+        <v>0.02787891322180851</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02431123640232687</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02094463452186093</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +594,13 @@
         <v>0.03053534835443629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0234479315146108</v>
+        <v>0.02331057633078736</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01663020176682151</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01184093569365686</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +611,13 @@
         <v>0.003002641750018904</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006722294386397641</v>
+        <v>0.006819328375059187</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.00929739404265134</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01118403691153653</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-4.344855546796872</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.957286587214655</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>-1.140201035762955</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.103493532102002</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.09302013488457662</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1467363082292533</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>0.04823066005975032</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2098531366299979</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>-0.09856047570660458</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1472850463680386</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>0.02905822296111348</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.00555851603802497</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.05081791680323088</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1339932723121559</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>0.02094463452186093</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.01792418869098353</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.01184093569365686</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.008429634753232787</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -618,6 +648,9 @@
       </c>
       <c r="E11" t="n">
         <v>0.01118403691153653</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01248471742244332</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-3.957286587214655</v>
       </c>
+      <c r="G2" t="n">
+        <v>-3.558514630618532</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>-1.103493532102002</v>
       </c>
+      <c r="G3" t="n">
+        <v>-1.052356509249368</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1467363082292533</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1824651996790562</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>0.2098531366299979</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.3301616634819076</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>-0.1472850463680386</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.1896870711483359</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.00555851603802497</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.03719318141454359</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.1339932723121559</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2081475882376755</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>0.01792418869098353</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.01524920988749804</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.008429634753232787</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.006144063036004781</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -651,6 +681,9 @@
       </c>
       <c r="F11" t="n">
         <v>0.01248471742244332</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0132805146545444</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-3.558514630618532</v>
       </c>
+      <c r="H2" t="n">
+        <v>-3.15815870534477</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>-1.052356509249368</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.9901363622351219</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1824651996790562</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.2019834264800346</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>0.3301616634819076</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.4149611416915732</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>-0.1896870711483359</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.2254183883515324</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.03719318141454359</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.06541400316776173</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2081475882376755</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.2722570338490323</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>0.01524920988749804</v>
       </c>
+      <c r="H9" t="n">
+        <v>0.01289815237915988</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.006144063036004781</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.004754811862846995</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -684,6 +714,9 @@
       </c>
       <c r="G11" t="n">
         <v>0.0132805146545444</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01363867418808622</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-3.15815870534477</v>
       </c>
+      <c r="I2" t="n">
+        <v>-2.764456082215727</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>-0.9901363622351219</v>
       </c>
+      <c r="I3" t="n">
+        <v>-0.9199310671012474</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.2019834264800346</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2071298000608717</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>0.4149611416915732</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.4696738667468856</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>-0.2254183883515324</v>
       </c>
+      <c r="I6" t="n">
+        <v>-0.2543676561869921</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.06541400316776173</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.08993163873886999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.2722570338490323</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.3258245750811242</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>0.01289815237915988</v>
       </c>
+      <c r="I9" t="n">
+        <v>0.01084793708336946</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.004754811862846995</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.004063254715435069</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -717,6 +747,9 @@
       </c>
       <c r="H11" t="n">
         <v>0.01363867418808622</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01362643867710743</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-2.764456082215727</v>
       </c>
+      <c r="J2" t="n">
+        <v>-2.384261618944329</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>-0.9199310671012474</v>
       </c>
+      <c r="J3" t="n">
+        <v>-0.8445516616106344</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2071298000608717</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.1997682092985407</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>0.4696738667468856</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.4993156856155469</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>-0.2543676561869921</v>
       </c>
+      <c r="J6" t="n">
+        <v>-0.2766224157273847</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.08993163873886999</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.1105833382818636</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.3258245750811242</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.368787675647539</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>0.01084793708336946</v>
       </c>
+      <c r="J9" t="n">
+        <v>0.009075072721323357</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.004063254715435069</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.003897503628876397</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -750,6 +780,9 @@
       </c>
       <c r="I11" t="n">
         <v>0.01362643867710743</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.01330769679114689</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-2.384261618944329</v>
       </c>
+      <c r="K2" t="n">
+        <v>-2.023088180459783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>-0.8445516616106344</v>
       </c>
+      <c r="K3" t="n">
+        <v>-0.7664934004678498</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.1997682092985407</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.1817479926000767</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>0.4993156856155469</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.5084764412430168</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>-0.2766224157273847</v>
       </c>
+      <c r="K6" t="n">
+        <v>-0.2924383542638585</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.1105833382818636</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.1273221306266865</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.368787675647539</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.4014284436778492</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>0.009075072721323357</v>
       </c>
+      <c r="K9" t="n">
+        <v>0.007555827398232275</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.003897503628876397</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.004111762799055298</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -783,6 +813,9 @@
       </c>
       <c r="J11" t="n">
         <v>0.01330769679114689</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01274226293498487</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-2.023088180459783</v>
       </c>
+      <c r="L2" t="n">
+        <v>-1.68517994824062</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>-0.7664934004678498</v>
       </c>
+      <c r="L3" t="n">
+        <v>-0.6879190803122327</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.1817479926000767</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.1548655967549297</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>0.5084764412430168</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.501306768144862</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>-0.2924383542638585</v>
       </c>
+      <c r="L6" t="n">
+        <v>-0.3022100588260132</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.1273221306266865</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.1402081502567095</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.4014284436778492</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.4242908648824241</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>0.007555827398232275</v>
       </c>
+      <c r="L9" t="n">
+        <v>0.006266712165362525</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.004111762799055298</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.004584434043215265</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -816,6 +846,9 @@
       </c>
       <c r="K11" t="n">
         <v>0.01274226293498487</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.01198502659356332</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-1.68517994824062</v>
       </c>
+      <c r="M2" t="n">
+        <v>-1.373610777531633</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>-0.6879190803122327</v>
       </c>
+      <c r="M3" t="n">
+        <v>-0.6106545379652326</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.1548655967549297</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.1208304159614174</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>0.501306768144862</v>
       </c>
+      <c r="M5" t="n">
+        <v>0.4815122429054723</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>-0.3022100588260132</v>
       </c>
+      <c r="M6" t="n">
+        <v>-0.3064417210080358</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.1402081502567095</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.1493979905674833</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.4242908648824241</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.4381078450971825</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>0.006266712165362525</v>
       </c>
+      <c r="M9" t="n">
+        <v>0.005184855192387661</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.004584434043215265</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.005216002907837133</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -849,6 +879,9 @@
       </c>
       <c r="L11" t="n">
         <v>0.01198502659356332</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01108550074989098</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-1.373610777531633</v>
       </c>
+      <c r="N2" t="n">
+        <v>-1.090399736833865</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>-0.6106545379652326</v>
       </c>
+      <c r="N3" t="n">
+        <v>-0.5361955226144444</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.1208304159614174</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.08123680873721162</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>0.4815122429054723</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.4523555773727749</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>-0.3064417210080358</v>
       </c>
+      <c r="N6" t="n">
+        <v>-0.3057174765299079</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.1493979905674833</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.1551306753060498</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.4381078450971825</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.4437392194267257</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>0.005184855192387661</v>
       </c>
+      <c r="N9" t="n">
+        <v>0.004288298662687616</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.005216002907837133</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.005926719061297646</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -882,6 +912,9 @@
       </c>
       <c r="M11" t="n">
         <v>0.01108550074989098</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01008760805329566</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-1.090399736833865</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.8366367068726722</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6126118682264818</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>-0.5361955226144444</v>
       </c>
+      <c r="O3" t="n">
+        <v>-0.4657240759688368</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.4001321118272729</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.08123680873721162</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.03754329094432164</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.008940944522873105</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>0.4523555773727749</v>
       </c>
+      <c r="O5" t="n">
+        <v>0.4166668696793512</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3768613040501999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>-0.3057174765299079</v>
       </c>
+      <c r="O6" t="n">
+        <v>-0.3006722170473243</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.2919641625736087</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.1551306753060498</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.1577104617054219</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1574877845208207</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.4437392194267257</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.442120638476823</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.4342224082364093</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>0.004288298662687616</v>
       </c>
+      <c r="O9" t="n">
+        <v>0.003556211750688697</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.002969031900047409</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.005926719061297646</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.006654235906479544</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.007351302360603446</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -915,6 +975,12 @@
       </c>
       <c r="N11" t="n">
         <v>0.01008760805329566</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.009029670688592699</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.007944550950589291</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.6126118682264818</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.4179439999178232</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>-0.4001321118272729</v>
       </c>
+      <c r="Q3" t="n">
+        <v>-0.3400498118504605</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>-0.008940944522873105</v>
       </c>
+      <c r="Q4" t="n">
+        <v>-0.05706267593565807</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>0.3768613040501999</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0.3349631899668696</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>-0.2919641625736087</v>
       </c>
+      <c r="Q6" t="n">
+        <v>-0.2802504711110352</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.1574877845208207</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.1548400536115092</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.4342224082364093</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.4210169366144691</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>0.002969031900047409</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0.00250854762700236</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.007351302360603446</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.007983573352065537</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -981,6 +1011,9 @@
       </c>
       <c r="P11" t="n">
         <v>0.007944550950589291</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.006859902086689372</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.4179439999178232</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2517036249043169</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>-0.3400498118504605</v>
       </c>
+      <c r="R3" t="n">
+        <v>-0.2858766559742313</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>-0.05706267593565807</v>
       </c>
+      <c r="R4" t="n">
+        <v>-0.1058253812484458</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>0.3349631899668696</v>
       </c>
+      <c r="R5" t="n">
+        <v>0.2926349194454954</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>-0.2802504711110352</v>
       </c>
+      <c r="R6" t="n">
+        <v>-0.2661668344791616</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.1548400536115092</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.150153901096198</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.4210169366144691</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.4034533582795107</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>0.00250854762700236</v>
       </c>
+      <c r="R9" t="n">
+        <v>0.002157936452932115</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.007983573352065537</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.008527577883993611</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1014,6 +1044,9 @@
       </c>
       <c r="Q11" t="n">
         <v>0.006859902086689372</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.005798496150085505</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2517036249043169</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.1125280961928421</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>-0.2858766559742313</v>
       </c>
+      <c r="S3" t="n">
+        <v>-0.237813261643058</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>-0.1058253812484458</v>
       </c>
+      <c r="S4" t="n">
+        <v>-0.1543851689667986</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>0.2926349194454954</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.2512093010732935</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>-0.2661668344791616</v>
       </c>
+      <c r="S6" t="n">
+        <v>-0.2503115459645946</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.150153901096198</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.1438100417124347</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.4034533582795107</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.3824380514879759</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>0.002157936452932115</v>
       </c>
+      <c r="S9" t="n">
+        <v>0.001901769660251181</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.008527577883993611</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.008968864719707249</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1047,6 +1077,9 @@
       </c>
       <c r="R11" t="n">
         <v>0.005798496150085505</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.004778602929400096</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.1125280961928421</v>
       </c>
+      <c r="T2" t="n">
+        <v>0.001273332969782378</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>-0.237813261643058</v>
       </c>
+      <c r="T3" t="n">
+        <v>-0.1958926205701601</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>-0.1543851689667986</v>
       </c>
+      <c r="T4" t="n">
+        <v>-0.2020430762675954</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>0.2512093010732935</v>
       </c>
+      <c r="T5" t="n">
+        <v>0.2117237720178168</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>-0.2503115459645946</v>
       </c>
+      <c r="T6" t="n">
+        <v>-0.2332340656849726</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.1438100417124347</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.1361713671949641</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.3824380514879759</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.3588200021760717</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>0.001901769660251181</v>
       </c>
+      <c r="T9" t="n">
+        <v>0.001725993092798115</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.008968864719707249</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.009300332978892718</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1080,6 +1110,9 @@
       </c>
       <c r="S11" t="n">
         <v>0.004778602929400096</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.003814399777047608</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>0.001273332969782378</v>
       </c>
+      <c r="U2" t="n">
+        <v>0.09162559843829754</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>-0.1958926205701601</v>
       </c>
+      <c r="U3" t="n">
+        <v>-0.160009726578587</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>-0.2020430762675954</v>
       </c>
+      <c r="U4" t="n">
+        <v>-0.2482348256838965</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>0.2117237720178168</v>
       </c>
+      <c r="U5" t="n">
+        <v>0.1749551483816985</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>-0.2332340656849726</v>
       </c>
+      <c r="U6" t="n">
+        <v>-0.2154277417953393</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.1361713671949641</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.1275743940924631</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.3588200021760717</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.3333802157239265</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>0.001725993092798115</v>
       </c>
+      <c r="U9" t="n">
+        <v>0.001617890786948363</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.009300332978892718</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.009520746983080627</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1113,6 +1143,9 @@
       </c>
       <c r="T11" t="n">
         <v>0.003814399777047608</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.002916396608300824</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>0.09162559843829754</v>
       </c>
+      <c r="V2" t="n">
+        <v>0.160605552330449</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>-0.160009726578587</v>
       </c>
+      <c r="V3" t="n">
+        <v>-0.1299489427243501</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>-0.2482348256838965</v>
       </c>
+      <c r="V4" t="n">
+        <v>-0.2925189893637294</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>0.1749551483816985</v>
       </c>
+      <c r="V5" t="n">
+        <v>0.1414538012330986</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>-0.2154277417953393</v>
       </c>
+      <c r="V6" t="n">
+        <v>-0.1973261071717792</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.1275743940924631</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.1183238089527132</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.3333802157239265</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.3068245711672165</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>0.001617890786948363</v>
       </c>
+      <c r="V9" t="n">
+        <v>0.001566036210019313</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.009520746983080627</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.009633429928474425</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1146,6 +1176,9 @@
       </c>
       <c r="U11" t="n">
         <v>0.002916396608300824</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.002091863677589052</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>0.160605552330449</v>
       </c>
+      <c r="W2" t="n">
+        <v>0.2103712861802157</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>-0.1299489427243501</v>
       </c>
+      <c r="W3" t="n">
+        <v>-0.1054087423393197</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>-0.2925189893637294</v>
       </c>
+      <c r="W4" t="n">
+        <v>-0.3345643378446982</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>0.1414538012330986</v>
       </c>
+      <c r="W5" t="n">
+        <v>0.111576397900259</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>-0.1973261071717792</v>
       </c>
+      <c r="W6" t="n">
+        <v>-0.1793020606107982</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.1183238089527132</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.1086896300383032</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.3068245711672165</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.2797796398962288</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>0.001566036210019313</v>
       </c>
+      <c r="W9" t="n">
+        <v>0.00156023440937974</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.009633429928474425</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.009645128154059587</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1179,6 +1209,9 @@
       </c>
       <c r="V11" t="n">
         <v>0.002091863677589052</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.001345252274579326</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>0.2103712861802157</v>
       </c>
+      <c r="X2" t="n">
+        <v>0.2431026220240413</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>-0.1054087423393197</v>
       </c>
+      <c r="X3" t="n">
+        <v>-0.08602367462426382</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>-0.3345643378446982</v>
       </c>
+      <c r="X4" t="n">
+        <v>-0.3741369763376454</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>0.111576397900259</v>
       </c>
+      <c r="X5" t="n">
+        <v>0.08551659387472976</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>-0.1793020606107982</v>
       </c>
+      <c r="X6" t="n">
+        <v>-0.1616692344598442</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.1086896300383032</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.09890641521853519</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.2797796398962288</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.2527910597807984</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>0.00156023440937974</v>
       </c>
+      <c r="X9" t="n">
+        <v>0.001591457403983309</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.009645128154059587</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.009565036047901432</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1212,6 +1242,9 @@
       </c>
       <c r="W11" t="n">
         <v>0.001345252274579326</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.0006786004970192479</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>0.2431026220240413</v>
       </c>
+      <c r="Y2" t="n">
+        <v>0.2609520743915592</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>-0.08602367462426382</v>
       </c>
+      <c r="Y3" t="n">
+        <v>-0.07138355808290361</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>-0.3741369763376454</v>
       </c>
+      <c r="Y4" t="n">
+        <v>-0.411087712998528</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>0.08551659387472976</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0.06333327961207405</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>-0.1616692344598442</v>
       </c>
+      <c r="Y6" t="n">
+        <v>-0.1446849135822662</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.09890641521853519</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.08917395613944813</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.2527910597807984</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.2263240859291246</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>0.001591457403983309</v>
       </c>
+      <c r="Y9" t="n">
+        <v>0.001651774571638623</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.009565036047901432</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.00940397048691384</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1245,6 +1275,9 @@
       </c>
       <c r="X11" t="n">
         <v>0.0006786004970192479</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.191795518302765e-05</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>0.2609520743915592</v>
       </c>
+      <c r="Z2" t="n">
+        <v>0.2660054153862637</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>-0.07138355808290361</v>
       </c>
+      <c r="Z3" t="n">
+        <v>-0.06105000583227375</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>-0.411087712998528</v>
       </c>
+      <c r="Z4" t="n">
+        <v>-0.4453399693010142</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>0.06333327961207405</v>
       </c>
+      <c r="Z5" t="n">
+        <v>0.04497616840598068</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>-0.1446849135822662</v>
       </c>
+      <c r="Z6" t="n">
+        <v>-0.1285539713272572</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.08917395613944813</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.07965897001242216</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.2263240859291246</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.2007659512179326</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>0.001651774571638623</v>
       </c>
+      <c r="Z9" t="n">
+        <v>0.001734279473374115</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.00940397048691384</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.009173682890724819</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1278,6 +1308,9 @@
       </c>
       <c r="Y11" t="n">
         <v>9.191795518302765e-05</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.0004164552323299365</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>0.2660054153862637</v>
       </c>
+      <c r="AA2" t="n">
+        <v>0.2602508830313238</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>-0.06105000583227375</v>
       </c>
+      <c r="AA3" t="n">
+        <v>-0.0545704479493062</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>-0.4453399693010142</v>
       </c>
+      <c r="AA4" t="n">
+        <v>-0.4768784349461659</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>0.04497616840598068</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0.03030865371320548</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>-0.1285539713272572</v>
       </c>
+      <c r="AA6" t="n">
+        <v>-0.1134334008853663</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.07965897001242216</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.07049739876023142</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.2007659512179326</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1764296786293187</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>0.001734279473374115</v>
       </c>
+      <c r="AA9" t="n">
+        <v>0.001833014397927593</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.009173682890724819</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.008886296407783569</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1311,6 +1341,9 @@
       </c>
       <c r="Z11" t="n">
         <v>-0.0004164552323299365</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.0008495184238420271</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>0.2602508830313238</v>
       </c>
+      <c r="AB2" t="n">
+        <v>0.2455560415463111</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>-0.0545704479493062</v>
       </c>
+      <c r="AB3" t="n">
+        <v>-0.05148984871095098</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>-0.4768784349461659</v>
       </c>
+      <c r="AB4" t="n">
+        <v>-0.5057385874131403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>0.03030865371320548</v>
       </c>
+      <c r="AB5" t="n">
+        <v>0.01912796920849705</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>-0.1134334008853663</v>
       </c>
+      <c r="AB6" t="n">
+        <v>-0.09943712752433875</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.07049739876023142</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.06179702668012705</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1764296786293187</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1535590021168245</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>0.001833014397927593</v>
       </c>
+      <c r="AB9" t="n">
+        <v>0.00194289381925233</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.008886296407783569</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.008553855439994647</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1344,6 +1374,9 @@
       </c>
       <c r="AA11" t="n">
         <v>-0.0008495184238420271</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.001211311451552759</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>0.2455560415463111</v>
       </c>
+      <c r="AC2" t="n">
+        <v>0.2236513149767759</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>-0.05148984871095098</v>
       </c>
+      <c r="AC3" t="n">
+        <v>-0.0513603300355701</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>-0.5057385874131403</v>
       </c>
+      <c r="AC4" t="n">
+        <v>-0.5319971358563202</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>0.01912796920849705</v>
       </c>
+      <c r="AC5" t="n">
+        <v>0.01118275759605012</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>-0.09943712752433875</v>
       </c>
+      <c r="AC6" t="n">
+        <v>-0.08664087892748366</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.06179702668012705</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.05364021772568391</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1535590021168245</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1323340764166036</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>0.00194289381925233</v>
       </c>
+      <c r="AC9" t="n">
+        <v>0.002059627883333542</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.008553855439994647</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.008187974670137188</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1377,6 +1407,9 @@
       </c>
       <c r="AB11" t="n">
         <v>-0.001211311451552759</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.001506647557575079</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>0.2236513149767759</v>
       </c>
+      <c r="AD2" t="n">
+        <v>0.1961192588820486</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>-0.0513603300355701</v>
       </c>
+      <c r="AD3" t="n">
+        <v>-0.05374891360588818</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>-0.5319971358563202</v>
       </c>
+      <c r="AD4" t="n">
+        <v>-0.555763406413784</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>0.01118275759605012</v>
       </c>
+      <c r="AD5" t="n">
+        <v>0.006188201005093356</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>-0.08664087892748366</v>
       </c>
+      <c r="AD6" t="n">
+        <v>-0.07508696345036253</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.05364021772568391</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.04608664532020363</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1323340764166036</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1128776883458135</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>0.002059627883333542</v>
       </c>
+      <c r="AD9" t="n">
+        <v>0.002179646949095291</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.008187974670137188</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.007799574991595819</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1410,6 +1440,9 @@
       </c>
       <c r="AC11" t="n">
         <v>-0.001506647557575079</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.001740878249712558</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>0.1961192588820486</v>
       </c>
+      <c r="AE2" t="n">
+        <v>0.1643886974777108</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>-0.05374891360588818</v>
       </c>
+      <c r="AE3" t="n">
+        <v>-0.05824358800221759</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>-0.555763406413784</v>
       </c>
+      <c r="AE4" t="n">
+        <v>-0.5771716569873785</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>0.006188201005093356</v>
       </c>
+      <c r="AE5" t="n">
+        <v>0.003838892796699915</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>-0.07508696345036253</v>
       </c>
+      <c r="AE6" t="n">
+        <v>-0.06478885987640692</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.04608664532020363</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.0391759400935653</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1128776883458135</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.0952617201349982</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>0.002179646949095291</v>
       </c>
+      <c r="AE9" t="n">
+        <v>0.002300028092628557</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.007799574991595819</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.007398694235894831</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1443,6 +1473,9 @@
       </c>
       <c r="AD11" t="n">
         <v>-0.001740878249712558</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.001919689280685814</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>0.1643886974777108</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.1297329271118269</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>-0.05824358800221759</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-0.06445789701115127</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>-0.5771716569873785</v>
       </c>
+      <c r="AF4" t="n">
+        <v>-0.5963742905597647</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>0.003838892796699915</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.00381964324950358</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>-0.06478885987640692</v>
       </c>
+      <c r="AF6" t="n">
+        <v>-0.05573555976927363</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.0391759400935653</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.03293021610607552</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.0952617201349982</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.07951365606093849</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>0.002300028092628557</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.002418424347425337</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.007398694235894831</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.006994361310604077</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1476,6 +1506,9 @@
       </c>
       <c r="AE11" t="n">
         <v>-0.001919689280685814</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.002048926350472194</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>0.1297329271118269</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.09327126485416108</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>-0.06445789701115127</v>
       </c>
+      <c r="AG3" t="n">
+        <v>-0.07203423317971198</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>-0.5963742905597647</v>
       </c>
+      <c r="AG4" t="n">
+        <v>-0.6135359241809863</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>0.00381964324950358</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.005814414333476294</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>-0.05573555976927363</v>
       </c>
+      <c r="AG6" t="n">
+        <v>-0.04789562829969351</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.03293021610607552</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.02735645750443554</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.07951365606093849</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.06562296416327165</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>0.002418424347425337</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.002532997304635315</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.006994361310604077</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.006594523243373104</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1509,6 +1539,9 @@
       </c>
       <c r="AF11" t="n">
         <v>-0.002048926350472194</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.002134448692639056</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>0.09327126485416108</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.05597329882506498</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>-0.07203423317971198</v>
       </c>
+      <c r="AH3" t="n">
+        <v>-0.08064600787662785</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>-0.6135359241809863</v>
       </c>
+      <c r="AH4" t="n">
+        <v>-0.6288282636323178</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>0.005814414333476294</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.009513575059218149</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>-0.04789562829969351</v>
       </c>
+      <c r="AH6" t="n">
+        <v>-0.04122096501527685</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.02735645750443554</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.02244875899124267</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.06562296416327165</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.05354722288393667</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>0.002532997304635315</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.002642353547101016</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.006594523243373104</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.006206015616332059</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1542,6 +1572,9 @@
       </c>
       <c r="AG11" t="n">
         <v>-0.002134448692639056</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.002182008415670699</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>0.05597329882506498</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.01866527175606974</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>-0.08064600787662785</v>
       </c>
+      <c r="AI3" t="n">
+        <v>-0.08999885625790198</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>-0.6288282636323178</v>
       </c>
+      <c r="AI4" t="n">
+        <v>-0.6424257298247154</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>0.009513575059218149</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.01461966121170527</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>-0.04122096501527685</v>
       </c>
+      <c r="AI6" t="n">
+        <v>-0.03565025550748296</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.02244875899124267</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.0181904184631652</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.05354722288393667</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.04321789658122799</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>0.002642353547101016</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.002745485248258061</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.006206015616332059</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.00583456791059063</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1575,6 +1605,9 @@
       </c>
       <c r="AH11" t="n">
         <v>-0.002182008415670699</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.002197153307164495</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>0.01866527175606974</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.01796190057996636</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>-0.08999885625790198</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>-0.09983102292935307</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>-0.6424257298247154</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>-0.654501781086314</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>0.01461966121170527</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.02085181337828088</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>-0.03565025550748296</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>-0.03111211071815428</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.0181904184631652</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.01455588148043017</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.04321789658122799</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.0345456932733509</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>0.002745485248258061</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.002841715138683246</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.00583456791059063</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.00548483631313712</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1608,6 +1638,9 @@
       </c>
       <c r="AI11" t="n">
         <v>-0.002197153307164495</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.002185150747947863</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.01796190057996636</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.05334340986558167</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>-0.09983102292935307</v>
       </c>
+      <c r="AK3" t="n">
+        <v>-0.1099130618817871</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>-0.654501781086314</v>
       </c>
+      <c r="AK4" t="n">
+        <v>-0.6652258748985119</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>0.02085181337828088</v>
       </c>
+      <c r="AK5" t="n">
+        <v>0.02794905620023878</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>-0.03111211071815428</v>
       </c>
+      <c r="AK6" t="n">
+        <v>-0.02752789442494747</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.01455588148043017</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.01151253689406137</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.0345456932733509</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.02742546246801273</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>0.002841715138683246</v>
       </c>
+      <c r="AK9" t="n">
+        <v>0.002930645932948356</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.00548483631313712</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.005160457529689898</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1641,6 +1671,9 @@
       </c>
       <c r="AJ11" t="n">
         <v>-0.002185150747947863</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.002150930400389167</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.05334340986558167</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.0870305097236943</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>-0.1099130618817871</v>
       </c>
+      <c r="AL3" t="n">
+        <v>-0.1200469724826621</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>-0.6652258748985119</v>
       </c>
+      <c r="AL4" t="n">
+        <v>-0.6747610128928444</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>0.02794905620023878</v>
       </c>
+      <c r="AL5" t="n">
+        <v>0.03567257042016155</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>-0.02752789442494747</v>
       </c>
+      <c r="AL6" t="n">
+        <v>-0.02481424233962421</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.01151253689406137</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.009022362285484201</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.02742546246801273</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.02174061075187182</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>0.002930645932948356</v>
       </c>
+      <c r="AL9" t="n">
+        <v>0.00301211421882516</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.005160457529689898</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.00486411807061779</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1674,6 +1704,9 @@
       </c>
       <c r="AK11" t="n">
         <v>-0.002150930400389167</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.002099043408572362</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.0870305097236943</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.1186799662044602</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>-0.1200469724826621</v>
       </c>
+      <c r="AM3" t="n">
+        <v>-0.1300648819423585</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>-0.6747610128928444</v>
       </c>
+      <c r="AM4" t="n">
+        <v>-0.6832618137495707</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>0.03567257042016155</v>
       </c>
+      <c r="AM5" t="n">
+        <v>0.04380709796840108</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>-0.02481424233962421</v>
       </c>
+      <c r="AM6" t="n">
+        <v>-0.02288527884882805</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.009022362285484201</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.007043417587728183</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.02174061075187182</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.01736702841908196</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>0.00301211421882516</v>
       </c>
+      <c r="AM9" t="n">
+        <v>0.003086148739113325</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.00486411807061779</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.004597634317895807</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1707,6 +1737,9 @@
       </c>
       <c r="AL11" t="n">
         <v>-0.002099043408572362</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.002033635958999724</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.1186799662044602</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.1480432785570605</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>-0.1300648819423585</v>
       </c>
+      <c r="AN3" t="n">
+        <v>-0.1398273737322264</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>-0.6832618137495707</v>
       </c>
+      <c r="AN4" t="n">
+        <v>-0.6908730598926655</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>0.04380709796840108</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.05216160924307661</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>-0.02288527884882805</v>
       </c>
+      <c r="AN6" t="n">
+        <v>-0.02165453998169002</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.007043417587728183</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.005531185648309364</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.01736702841908196</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.01417653241075049</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>0.003086148739113325</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.003152932941461148</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.004597634317895807</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.004362039433128373</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1740,6 +1770,9 @@
       </c>
       <c r="AM11" t="n">
         <v>-0.002033635958999724</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.001958435184427967</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.1480432785570605</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.1749559016805107</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>-0.1398273737322264</v>
       </c>
+      <c r="AO3" t="n">
+        <v>-0.1492215509170478</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>-0.6908730598926655</v>
       </c>
+      <c r="AO4" t="n">
+        <v>-0.6977286654750402</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>0.05216160924307661</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.06056935098409001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>-0.02165453998169002</v>
       </c>
+      <c r="AO6" t="n">
+        <v>-0.02103661374160599</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.005531185648309364</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.004439759565660405</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.01417653241075049</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.01203983984553751</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>0.003152932941461148</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.003212771630967575</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.004362039433128373</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.004157673830888657</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1773,6 +1803,9 @@
       </c>
       <c r="AN11" t="n">
         <v>-0.001958435184427967</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.001876745539368033</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.1749559016805107</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.1993266631039324</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>-0.1492215509170478</v>
       </c>
+      <c r="AP3" t="n">
+        <v>-0.1581589132909235</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>-0.6977286654750402</v>
       </c>
+      <c r="AP4" t="n">
+        <v>-0.7039510150490478</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>0.06056935098409001</v>
       </c>
+      <c r="AP5" t="n">
+        <v>0.06888738275522145</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>-0.02103661374160599</v>
       </c>
+      <c r="AP6" t="n">
+        <v>-0.0209485114122856</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.004439759565660405</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.003722878226362241</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.01203983984553751</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.01082909303834289</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>0.003212771630967575</v>
       </c>
+      <c r="AP9" t="n">
+        <v>0.003266061531265938</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.004157673830888657</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.003984276523214295</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1806,6 +1836,9 @@
       </c>
       <c r="AO11" t="n">
         <v>-0.001876745539368033</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.001791453926031805</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.1993266631039324</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2211275326829621</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>-0.1581589132909235</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>-0.1665731175923266</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>-0.7039510150490478</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>-0.709650624494514</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>0.06888738275522145</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>0.07699570003336657</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>-0.0209485114122856</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>-0.02131078571770258</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.003722878226362241</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.003334813365513114</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.01082909303834289</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.01041996164602055</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>0.003266061531265938</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>0.003313265539637707</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.003984276523214295</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.003841075147902038</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1839,6 +1869,9 @@
       </c>
       <c r="AP11" t="n">
         <v>-0.001791453926031805</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.001705041999131152</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2211275326829621</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2403838720104716</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>-0.1665731175923266</v>
       </c>
+      <c r="AR3" t="n">
+        <v>-0.1744176809457804</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>-0.709650624494514</v>
       </c>
+      <c r="AR4" t="n">
+        <v>-0.7149260782059934</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>0.07699570003336657</v>
       </c>
+      <c r="AR5" t="n">
+        <v>0.08479603225617334</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>-0.02131078571770258</v>
       </c>
+      <c r="AR6" t="n">
+        <v>-0.02204841366180755</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.003334813365513114</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.00323111344037071</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.01041996164602055</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.01069335087082538</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>0.003313265539637707</v>
       </c>
+      <c r="AR9" t="n">
+        <v>0.003354890448283421</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.003841075147902038</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.003726872933860515</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1872,6 +1902,9 @@
       </c>
       <c r="AQ11" t="n">
         <v>-0.001705041999131152</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.001619604223986179</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2403838720104716</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2571652624927694</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>-0.1744176809457804</v>
       </c>
+      <c r="AS3" t="n">
+        <v>-0.1816636790595264</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>-0.7149260782059934</v>
       </c>
+      <c r="AS4" t="n">
+        <v>-0.7198641991973359</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>0.08479603225617334</v>
       </c>
+      <c r="AS5" t="n">
+        <v>0.09221039489751659</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>-0.02204841366180755</v>
       </c>
+      <c r="AS6" t="n">
+        <v>-0.02309146340554692</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.00323111344037071</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.003369211456817752</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.01069335087082538</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.01153674682444849</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>0.003354890448283421</v>
       </c>
+      <c r="AS9" t="n">
+        <v>0.00339146789542125</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.003726872933860515</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.003640131239744367</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1905,6 +1935,9 @@
       </c>
       <c r="AR11" t="n">
         <v>-0.001619604223986179</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.00153687040334394</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2571652624927694</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2715769858731727</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>-0.1816636790595264</v>
       </c>
+      <c r="AT3" t="n">
+        <v>-0.1882974826235321</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>-0.7198641991973359</v>
       </c>
+      <c r="AT4" t="n">
+        <v>-0.7245404116337235</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>0.09221039489751659</v>
       </c>
+      <c r="AT5" t="n">
+        <v>0.09917946573005329</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>-0.02309146340554692</v>
       </c>
+      <c r="AT6" t="n">
+        <v>-0.02437556560373316</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.003369211456817752</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.003708905480877994</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.01153674682444849</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.01284523145438306</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>0.00339146789542125</v>
       </c>
+      <c r="AT9" t="n">
+        <v>0.00342353830514559</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.003640131239744367</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.003579046634976129</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1938,6 +1968,9 @@
       </c>
       <c r="AS11" t="n">
         <v>-0.00153687040334394</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.001458231523501366</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_factors_matrix_10.xlsx
+++ b/predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2715769858731727</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2837522084905794</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>-0.1882974826235321</v>
       </c>
+      <c r="AU3" t="n">
+        <v>-0.1943185678207028</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>-0.7245404116337235</v>
       </c>
+      <c r="AU4" t="n">
+        <v>-0.7290192583129232</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>0.09917946573005329</v>
       </c>
+      <c r="AU5" t="n">
+        <v>0.1056608469094116</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>-0.02437556560373316</v>
       </c>
+      <c r="AU6" t="n">
+        <v>-0.02584221020928974</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.003708905480877994</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.004212721820772179</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.01284523145438306</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.01452220003691402</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>0.00342353830514559</v>
       </c>
+      <c r="AU9" t="n">
+        <v>0.003451637573089179</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.003579046634976129</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.003541621781555656</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1971,6 +2001,9 @@
       </c>
       <c r="AT11" t="n">
         <v>-0.001458231523501366</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.001384767899587365</v>
       </c>
     </row>
   </sheetData>
